--- a/meta_stra_framwork/result/newzhongli/year/2018_trade.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2018_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>code</t>
   </si>
@@ -34,10 +34,142 @@
     <t>position</t>
   </si>
   <si>
-    <t>000001.XSHE</t>
+    <t>600000.XSHG</t>
+  </si>
+  <si>
+    <t>600977.XSHG</t>
+  </si>
+  <si>
+    <t>601229.XSHG</t>
+  </si>
+  <si>
+    <t>000895.XSHE</t>
+  </si>
+  <si>
+    <t>002007.XSHE</t>
+  </si>
+  <si>
+    <t>300142.XSHE</t>
+  </si>
+  <si>
+    <t>600085.XSHG</t>
+  </si>
+  <si>
+    <t>002468.XSHE</t>
+  </si>
+  <si>
+    <t>000661.XSHE</t>
+  </si>
+  <si>
+    <t>002230.XSHE</t>
+  </si>
+  <si>
+    <t>600893.XSHG</t>
+  </si>
+  <si>
+    <t>002294.XSHE</t>
+  </si>
+  <si>
+    <t>600115.XSHG</t>
+  </si>
+  <si>
+    <t>603858.XSHG</t>
+  </si>
+  <si>
+    <t>601857.XSHG</t>
+  </si>
+  <si>
+    <t>601228.XSHG</t>
+  </si>
+  <si>
+    <t>002179.XSHE</t>
+  </si>
+  <si>
+    <t>002065.XSHE</t>
+  </si>
+  <si>
+    <t>002493.XSHE</t>
+  </si>
+  <si>
+    <t>000656.XSHE</t>
+  </si>
+  <si>
+    <t>601898.XSHG</t>
+  </si>
+  <si>
+    <t>000425.XSHE</t>
+  </si>
+  <si>
+    <t>601336.XSHG</t>
+  </si>
+  <si>
+    <t>600760.XSHG</t>
+  </si>
+  <si>
+    <t>600570.XSHG</t>
+  </si>
+  <si>
+    <t>002142.XSHE</t>
+  </si>
+  <si>
+    <t>600299.XSHG</t>
+  </si>
+  <si>
+    <t>600016.XSHG</t>
+  </si>
+  <si>
+    <t>601989.XSHG</t>
+  </si>
+  <si>
+    <t>000415.XSHE</t>
+  </si>
+  <si>
+    <t>600498.XSHG</t>
+  </si>
+  <si>
+    <t>600606.XSHG</t>
+  </si>
+  <si>
+    <t>600390.XSHG</t>
+  </si>
+  <si>
+    <t>002625.XSHE</t>
+  </si>
+  <si>
+    <t>600176.XSHG</t>
+  </si>
+  <si>
+    <t>000157.XSHE</t>
+  </si>
+  <si>
+    <t>600170.XSHG</t>
+  </si>
+  <si>
+    <t>600795.XSHG</t>
+  </si>
+  <si>
+    <t>002624.XSHE</t>
+  </si>
+  <si>
+    <t>600522.XSHG</t>
+  </si>
+  <si>
+    <t>601888.XSHG</t>
+  </si>
+  <si>
+    <t>000069.XSHE</t>
+  </si>
+  <si>
+    <t>002773.XSHE</t>
+  </si>
+  <si>
+    <t>600566.XSHG</t>
   </si>
   <si>
     <t>[1. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[0. 1. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -395,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,24 +555,1956 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>20190124</v>
+        <v>20180202</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13.14</v>
+      </c>
+      <c r="F2">
+        <v>1314</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>20180222</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10.52</v>
-      </c>
-      <c r="F2">
-        <v>1052</v>
-      </c>
-      <c r="G2">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>17.12</v>
+      </c>
+      <c r="F3">
+        <v>1712</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>20180228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>15.25</v>
+      </c>
+      <c r="F4">
+        <v>1525</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>20180307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>15.18</v>
+      </c>
+      <c r="F5">
+        <v>1518</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>20180321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>27.82</v>
+      </c>
+      <c r="F6">
+        <v>2782</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>20180327</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>20180327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>20.39</v>
+      </c>
+      <c r="F8">
+        <v>2039</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>20180330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>34.66</v>
+      </c>
+      <c r="F9">
+        <v>3466</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>20180403</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>2400</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>20180410</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>183.38</v>
+      </c>
+      <c r="F11">
+        <v>18338</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>20180411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>26.14</v>
+      </c>
+      <c r="F12">
+        <v>2614</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>20180411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>24.37</v>
+      </c>
+      <c r="F13">
+        <v>2437</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>20180412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>56.73</v>
+      </c>
+      <c r="F14">
+        <v>5673</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>20180417</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>54.81</v>
+      </c>
+      <c r="F15">
+        <v>5481</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>20180425</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>28.69</v>
+      </c>
+      <c r="F16">
+        <v>2869</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>20180427</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>15.76</v>
+      </c>
+      <c r="F17">
+        <v>1576</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>20180516</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>42.75</v>
+      </c>
+      <c r="F18">
+        <v>4275</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>20180604</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.69</v>
+      </c>
+      <c r="F19">
+        <v>769</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>20180605</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>52.8</v>
+      </c>
+      <c r="F20">
+        <v>5280</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20180607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.93</v>
+      </c>
+      <c r="F21">
+        <v>793</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20180613</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>5.94</v>
+      </c>
+      <c r="F22">
+        <v>594</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>20180614</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>40.75</v>
+      </c>
+      <c r="F23">
+        <v>4075</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>20180621</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>38.4</v>
+      </c>
+      <c r="F24">
+        <v>3840</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>20180627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>5.68</v>
+      </c>
+      <c r="F25">
+        <v>568</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>20180628</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>7.71</v>
+      </c>
+      <c r="F26">
+        <v>771</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>20180710</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>20.6</v>
+      </c>
+      <c r="F27">
+        <v>2060</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>20180712</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>35.57</v>
+      </c>
+      <c r="F28">
+        <v>3557</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>20180713</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>36.71</v>
+      </c>
+      <c r="F29">
+        <v>3671</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>20180718</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9.08</v>
+      </c>
+      <c r="F30">
+        <v>908</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>20180810</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>32.45</v>
+      </c>
+      <c r="F31">
+        <v>3245</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>20180813</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>217.5</v>
+      </c>
+      <c r="F32">
+        <v>21750</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>20180813</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>9.1</v>
+      </c>
+      <c r="F33">
+        <v>910</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>20180821</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>11.54</v>
+      </c>
+      <c r="F34">
+        <v>1154</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>20180822</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>5.07</v>
+      </c>
+      <c r="F35">
+        <v>507</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>20180824</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>5.01</v>
+      </c>
+      <c r="F36">
+        <v>501</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>20180827</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>4.28</v>
+      </c>
+      <c r="F37">
+        <v>428</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>20180912</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>42.9</v>
+      </c>
+      <c r="F38">
+        <v>4290</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>20180918</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>47.97</v>
+      </c>
+      <c r="F39">
+        <v>4797</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>20180919</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>10.97</v>
+      </c>
+      <c r="F40">
+        <v>1097</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>20180920</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>37.2</v>
+      </c>
+      <c r="F41">
+        <v>3720</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>20180925</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>55.28</v>
+      </c>
+      <c r="F42">
+        <v>5528</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>20180926</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3.97</v>
+      </c>
+      <c r="F43">
+        <v>397</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>20181019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5.08</v>
+      </c>
+      <c r="F44">
+        <v>508</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>20181022</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>23.13</v>
+      </c>
+      <c r="F45">
+        <v>2313</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>20181022</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>41.22</v>
+      </c>
+      <c r="F46">
+        <v>4122</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>20181022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>35.32</v>
+      </c>
+      <c r="F47">
+        <v>3532</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>20181023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>51.84</v>
+      </c>
+      <c r="F48">
+        <v>5184</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>20181026</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>17.31</v>
+      </c>
+      <c r="F49">
+        <v>1731</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>20181031</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>18.31</v>
+      </c>
+      <c r="F50">
+        <v>1831</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>20181113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>12.62</v>
+      </c>
+      <c r="F51">
+        <v>1262</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>20181121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>6.16</v>
+      </c>
+      <c r="F52">
+        <v>616</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>20181203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>45.23</v>
+      </c>
+      <c r="F53">
+        <v>4523</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>20181203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>17.75</v>
+      </c>
+      <c r="F54">
+        <v>1775</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>20181203</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>6.17</v>
+      </c>
+      <c r="F55">
+        <v>617</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>20181203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4.3</v>
+      </c>
+      <c r="F56">
+        <v>430</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>20181204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3.97</v>
+      </c>
+      <c r="F57">
+        <v>397</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>20181206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>11.55</v>
+      </c>
+      <c r="F58">
+        <v>1155</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>20181206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>27.33</v>
+      </c>
+      <c r="F59">
+        <v>2733</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>20181206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>6.15</v>
+      </c>
+      <c r="F60">
+        <v>615</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>20181210</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>7.51</v>
+      </c>
+      <c r="F61">
+        <v>751</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>20181212</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>3.9</v>
+      </c>
+      <c r="F62">
+        <v>390</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>20181213</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>5.29</v>
+      </c>
+      <c r="F63">
+        <v>529</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>20181213</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>28.35</v>
+      </c>
+      <c r="F64">
+        <v>2835</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>20181213</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>10.15</v>
+      </c>
+      <c r="F65">
+        <v>1015</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>20181214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>10.46</v>
+      </c>
+      <c r="F66">
+        <v>1046</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>20181224</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3.67</v>
+      </c>
+      <c r="F67">
+        <v>367</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>20181226</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3.08</v>
+      </c>
+      <c r="F68">
+        <v>308</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>20181226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>2.48</v>
+      </c>
+      <c r="F69">
+        <v>248</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>20181227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>16.13</v>
+      </c>
+      <c r="F70">
+        <v>1613</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>20181227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>6.13</v>
+      </c>
+      <c r="F71">
+        <v>613</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>20181227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>27.33</v>
+      </c>
+      <c r="F72">
+        <v>2733</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>20190103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>17.92</v>
+      </c>
+      <c r="F73">
+        <v>1792</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>20190104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>7.4</v>
+      </c>
+      <c r="F74">
+        <v>740</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>20190107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3.61</v>
+      </c>
+      <c r="F75">
+        <v>361</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>20190107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>18.64</v>
+      </c>
+      <c r="F76">
+        <v>1864</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>20190107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>8.41</v>
+      </c>
+      <c r="F77">
+        <v>841</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>20190109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>9.99</v>
+      </c>
+      <c r="F78">
+        <v>999</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>20190109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>60.9</v>
+      </c>
+      <c r="F79">
+        <v>6090</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>20190116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F80">
+        <v>963.0000000000001</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>20190116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>6.17</v>
+      </c>
+      <c r="F81">
+        <v>617</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>20190211</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>26.15</v>
+      </c>
+      <c r="F82">
+        <v>2615</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>20190211</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>58.1</v>
+      </c>
+      <c r="F83">
+        <v>5810</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>20190213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>2.52</v>
+      </c>
+      <c r="F84">
+        <v>252</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>20190301</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>40.15</v>
+      </c>
+      <c r="F85">
+        <v>4015</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>20190402</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>35.79</v>
+      </c>
+      <c r="F86">
+        <v>3579</v>
+      </c>
+      <c r="G86">
         <v>1</v>
       </c>
     </row>
